--- a/Go/Data/Layouts.xlsx
+++ b/Go/Data/Layouts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaco\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\_Projects\Go\Go\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EC7E57-DB5A-4F0A-8779-0EE169A2C870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01BB10D-5820-4DF7-95EE-B54A4183A74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{356931C4-DA09-42DD-8292-57BC20ABEDAB}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="394">
   <si>
     <t>tab-judgement-end</t>
   </si>
@@ -171,9 +171,6 @@
     <t>tj-es2-5-3</t>
   </si>
   <si>
-    <t>tj-es2-5-1</t>
-  </si>
-  <si>
     <t>tj-es2-15-13a</t>
   </si>
   <si>
@@ -324,9 +321,6 @@
     <t>tj-rev-12-6</t>
   </si>
   <si>
-    <t>tj-rev-12-5b</t>
-  </si>
-  <si>
     <t>tj-rev-12-4</t>
   </si>
   <si>
@@ -1186,6 +1180,54 @@
   </si>
   <si>
     <t>j-rev-12-6a</t>
+  </si>
+  <si>
+    <t>tj-rev-12-5b-d</t>
+  </si>
+  <si>
+    <t>tj-rev-5-9c-u</t>
+  </si>
+  <si>
+    <t>tj-rev-12-6-up</t>
+  </si>
+  <si>
+    <t>tj-es2-15-8b-up</t>
+  </si>
+  <si>
+    <t>tj-es2-5-2</t>
+  </si>
+  <si>
+    <t>tj-es2-5-2-up</t>
+  </si>
+  <si>
+    <t>tj-rev-11-1-up</t>
+  </si>
+  <si>
+    <t>tj-rev-7-9-u</t>
+  </si>
+  <si>
+    <t>tj-rev-4-5-u</t>
+  </si>
+  <si>
+    <t>tj-ba2-30-2c-up</t>
+  </si>
+  <si>
+    <t>tj-rev-18-1-u</t>
+  </si>
+  <si>
+    <t>tj-rev-18-1-up</t>
+  </si>
+  <si>
+    <t>tj-es2-16-12a-up</t>
+  </si>
+  <si>
+    <t>tj-rev-13-5u</t>
+  </si>
+  <si>
+    <t>tj-es2-15-13a-u</t>
+  </si>
+  <si>
+    <t>tj-es2-5-3-u</t>
   </si>
 </sst>
 </file>
@@ -1560,20 +1602,73 @@
   <dimension ref="A1:BG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A29"/>
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
-    <col min="4" max="20" width="7.44140625" customWidth="1"/>
-    <col min="31" max="31" width="10.21875" customWidth="1"/>
-    <col min="32" max="32" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1">
         <f>COUNTA(C6:AAA6)</f>
@@ -1582,7 +1677,7 @@
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2">
         <f>COUNTA(A6:A136)</f>
@@ -1596,101 +1691,101 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:AAA4),CHAR(34))</f>
+        <f t="shared" ref="A4:A29" si="0">_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:AAA4),CHAR(34))</f>
         <v>"y-start y-2023 y-2023 y-2023 y-2024 y-2024 y-2024 y-2024 y-2025 y-2025 y-2025 y-2025 y-2026 y-2026 y-2026 y-2026 y-2027 y-2027 y-2027 y-2027 y-2028 y-2028 y-2028 y-2028 y-2029 y-2029 y-2029 y-2030 y-2030 y-2030 . . y-2031 y-2031 y-2031 y-2031 y-2032 y-2032 y-2032 y-2033 y-2033 y-2033 y-2033 y-2034 y-2034 y-2034 . . . y-end . . . . . . ."</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="S4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="V4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="W4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="X4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Z4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AA4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AB4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AC4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AD4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AE4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AF4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AG4" t="s">
         <v>1</v>
@@ -1699,46 +1794,46 @@
         <v>1</v>
       </c>
       <c r="AI4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AJ4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AK4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AL4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AM4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AN4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AO4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AP4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AQ4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AR4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AS4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AT4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AU4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AV4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AW4" t="s">
         <v>1</v>
@@ -1750,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="AZ4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BA4" t="s">
         <v>1</v>
@@ -1776,14 +1871,14 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C5:AAA5),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"m-start m-tab-seal-1 m-tab-seal-1 m-tab-seal-2 m-tab-seal-2 m-tab-seal-3 m-tab-seal-3 m-tab-seal-4 m-tab-seal-4 m-tab-seal-5 m-tab-seal-5 m-tab-seal-6 m-tab-seal-6 m-tab-seal-7 m-tab-seal-7 m-tab-seal-7 m-tab-seal-7 m-tab-trumpet-1 m-tab-trumpet-1 m-tab-trumpet-2 m-tab-trumpet-2 m-tab-trumpet-3 m-tab-trumpet-3 m-tab-trumpet-4 m-tab-trumpet-4 m-tab-trumpet-5 m-tab-trumpet-5 m-tab-trumpet-6 m-tab-trumpet-6 m-tab-trumpet-7 m-tab-trumpet-7 m-tab-trumpet-7 m-tab-trumpet-7 m-tab-vial-1 m-tab-vial-1 m-tab-vial-2 m-tab-vial-2 m-tab-vial-3 m-tab-vial-3 m-tab-vial-4 m-tab-vial-4 m-tab-vial-5 m-tab-vial-5 m-tab-vial-6 m-tab-vial-6 . . m-tab-vial-7 m-tab-vial-7 m-end . . . . . . ."</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" t="str">
         <f>_xlfn.CONCAT("m-",E7)</f>
@@ -1976,7 +2071,7 @@
         <v>m-tab-vial-7</v>
       </c>
       <c r="AZ5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BA5" t="s">
         <v>1</v>
@@ -2002,7 +2097,7 @@
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C6:AAA6),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"h-tab-rev-12 . h-tab-seal-1 . h-tab-seal-2 . h-tab-seal-3 . h-tab-seal-4 . h-tab-seal-5 . h-tab-seal-6 . h-tab-rapture . h-tab-seal-7 . h-tab-trumpet-1 . h-tab-trumpet-2 . h-tab-trumpet-3 . h-tab-trumpet-4 . h-tab-trumpet-5 . h-tab-trumpet-6 . h-tab-ascension . h-tab-trumpet-7 . h-tab-vial-1 . h-tab-vial-2 . h-tab-vial-3 . h-tab-vial-4 . h-tab-vial-5 . h-tab-vial-6 . h-tab-thief . h-tab-vial-7 . h-tab-pre-1000 . h-tab-1000 . h-tab-end-1000 . h-tab-judgement"</v>
       </c>
       <c r="B6" t="s">
@@ -2211,188 +2306,188 @@
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C7:AAA7),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"tab-rev-12 . tab-seal-1 . tab-seal-2 . tab-seal-3 . tab-seal-4 . tab-seal-5 . tab-seal-6 . tab-rapture . tab-seal-7 . tab-trumpet-1 . tab-trumpet-2 . tab-trumpet-3 . tab-trumpet-4 . tab-trumpet-5 . tab-trumpet-6 . tab-ascension . tab-trumpet-7 . tab-vial-1 . tab-vial-2 . tab-vial-3 . tab-vial-4 . tab-vial-5 . tab-vial-6 . tab-thief . tab-vial-7 . tab-pre-1000 . tab-1000 . tab-end-1000 . tab-judgement"</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H7" t="s">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P7" t="s">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R7" t="s">
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T7" t="s">
         <v>1</v>
       </c>
       <c r="U7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V7" t="s">
         <v>1</v>
       </c>
       <c r="W7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="X7" t="s">
         <v>1</v>
       </c>
       <c r="Y7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Z7" t="s">
         <v>1</v>
       </c>
       <c r="AA7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB7" t="s">
         <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AD7" t="s">
         <v>1</v>
       </c>
       <c r="AE7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF7" t="s">
         <v>1</v>
       </c>
       <c r="AG7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH7" t="s">
         <v>1</v>
       </c>
       <c r="AI7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AJ7" t="s">
         <v>1</v>
       </c>
       <c r="AK7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AL7" t="s">
         <v>1</v>
       </c>
       <c r="AM7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AN7" t="s">
         <v>1</v>
       </c>
       <c r="AO7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AP7" t="s">
         <v>1</v>
       </c>
       <c r="AQ7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AR7" t="s">
         <v>1</v>
       </c>
       <c r="AS7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="s">
         <v>1</v>
       </c>
       <c r="AU7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AV7" t="s">
         <v>1</v>
       </c>
       <c r="AW7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AX7" t="s">
         <v>1</v>
       </c>
       <c r="AY7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AZ7" t="s">
         <v>1</v>
       </c>
       <c r="BA7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BB7" t="s">
         <v>1</v>
       </c>
       <c r="BC7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BD7" t="s">
         <v>1</v>
       </c>
       <c r="BE7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BF7" t="s">
         <v>1</v>
       </c>
       <c r="BG7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C8:AAA8),CHAR(34))</f>
-        <v>". tj-rev-12-2 tj-rev-12-3 tj-rev-12-3 tj-rev-12-3 tj-rev-12-3 tj-rev-12-3 tj-rev-12-3 tj-rev-12-3 tj-rev-12-3 tj-rev-12-3 tj-rev-12-3 . tj-rev-12-4 . tj-rev-12-5b tj-rev-12-5b tj-rev-12-5b . tj-rev-12-6 . tj-rev-12-7 . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
+        <f t="shared" si="0"/>
+        <v>". tj-rev-12-2 tj-rev-12-3 tj-rev-12-3 tj-rev-12-3 tj-rev-12-3 tj-rev-12-3 tj-rev-12-3 tj-rev-12-3 tj-rev-12-3 tj-rev-12-3 tj-rev-12-3 . tj-rev-12-4 . tj-rev-12-5b-d . tj-rev-12-6-up . tj-rev-12-6 . tj-rev-12-7 . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -2401,67 +2496,67 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q8" t="s">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>92</v>
+        <v>378</v>
       </c>
       <c r="S8" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="T8" t="s">
-        <v>92</v>
+        <v>380</v>
       </c>
       <c r="U8" t="s">
         <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W8" t="s">
         <v>1</v>
       </c>
       <c r="X8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y8" t="s">
         <v>1</v>
@@ -2571,8 +2666,8 @@
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C9:AAA9),CHAR(34))</f>
-        <v>". . . . . . . . . . . . . . . tj-rev-5-5-s . tj-rev-5-9c tj-rev-5-9c tj-rev-5-9c tj-rev-5-9c tj-rev-5-9c . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
+        <f t="shared" si="0"/>
+        <v>". . . . . . . . . . . . . . . tj-rev-5-5-s . tj-rev-5-9c tj-rev-5-9c-u tj-rev-5-9c-u tj-rev-5-9c-u tj-rev-5-9c-u tj-rev-5-9c-u . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -2623,28 +2718,28 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S9" t="s">
         <v>1</v>
       </c>
       <c r="T9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U9" t="s">
-        <v>88</v>
+        <v>379</v>
       </c>
       <c r="V9" t="s">
-        <v>88</v>
+        <v>379</v>
       </c>
       <c r="W9" t="s">
-        <v>88</v>
+        <v>379</v>
       </c>
       <c r="X9" t="s">
-        <v>88</v>
+        <v>379</v>
       </c>
       <c r="Y9" t="s">
-        <v>1</v>
+        <v>379</v>
       </c>
       <c r="Z9" t="s">
         <v>1</v>
@@ -2751,8 +2846,8 @@
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C10:AAA10),CHAR(34))</f>
-        <v>". . . tj-seal-1 . tj-seal-2 . tj-seal-3 . tj-seal-4 . tj-seal-5 . tj-rev-6-16 . tj-rev-7-1 . tj-rev-7-9 tj-rev-7-9 tj-rev-7-9 tj-rev-7-9 tj-rev-7-9 . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
+        <f t="shared" si="0"/>
+        <v>". . . tj-seal-1 . tj-seal-2 . tj-seal-3 . tj-seal-4 . tj-seal-5 . tj-rev-6-16 . tj-rev-7-1 . tj-rev-7-9 tj-rev-7-9-u tj-rev-7-9-u tj-rev-7-9-u tj-rev-7-9-u tj-rev-7-9-u . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -2767,64 +2862,64 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M10" t="s">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q10" t="s">
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s">
         <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="V10" t="s">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="W10" t="s">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="X10" t="s">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="Y10" t="s">
-        <v>1</v>
+        <v>385</v>
       </c>
       <c r="Z10" t="s">
         <v>1</v>
@@ -2931,7 +3026,7 @@
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C11:AAA11),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . tj-job-5-19-s . . . tj-mat-24-29a-s . tj-mat-24-30b . . . tj-rev-8-6 . tj-rev-8-7 . tj-rev-8-8 . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B11" t="s">
@@ -2959,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s">
         <v>1</v>
@@ -2971,13 +3066,13 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q11" t="s">
         <v>1</v>
@@ -2989,19 +3084,19 @@
         <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s">
         <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s">
         <v>1</v>
       </c>
       <c r="X11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s">
         <v>1</v>
@@ -3111,7 +3206,7 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C12:AAA12),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . tj-mrk-13-24a-s . tj-mark-13-26 . . . tj-rev-10-5 . tj-rev-10-6b . tj-rev-10-6c . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B12" t="s">
@@ -3151,13 +3246,13 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O12" t="s">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q12" t="s">
         <v>1</v>
@@ -3169,19 +3264,19 @@
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U12" t="s">
         <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W12" t="s">
         <v>1</v>
       </c>
       <c r="X12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y12" t="s">
         <v>1</v>
@@ -3291,7 +3386,7 @@
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C13:AAA13),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . . tj-luke-21-26b . . . tj-rev-14-7a . tj-rev-14-7b . tj-rev-14-7c . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B13" t="s">
@@ -3337,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q13" t="s">
         <v>1</v>
@@ -3349,19 +3444,19 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U13" t="s">
         <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W13" t="s">
         <v>1</v>
       </c>
       <c r="X13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y13" t="s">
         <v>1</v>
@@ -3471,7 +3566,7 @@
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C14:AAA14),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . . . . . . tj-dan-12-7b . . . tj-gad-2-26 . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B14" t="s">
@@ -3529,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="T14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U14" t="s">
         <v>1</v>
@@ -3541,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="X14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y14" t="s">
         <v>1</v>
@@ -3651,8 +3746,8 @@
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C15:AAA15),CHAR(34))</f>
-        <v>". . . . . . . . . . . . . . . tj-rev-11-1 tj-rev-11-1 tj-rev-11-1 . tj-rev-11-6a . tj-rev-11-6c . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
+        <f t="shared" si="0"/>
+        <v>". . . . . . . . . . . . . . . tj-rev-11-1 . tj-rev-11-1-up . tj-rev-11-6a . tj-rev-11-6c . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -3703,25 +3798,25 @@
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S15" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>62</v>
+        <v>384</v>
       </c>
       <c r="U15" t="s">
         <v>1</v>
       </c>
       <c r="V15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W15" t="s">
         <v>1</v>
       </c>
       <c r="X15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y15" t="s">
         <v>1</v>
@@ -3831,8 +3926,8 @@
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C16:AAA16),CHAR(34))</f>
-        <v>". . . . . . . . . . . . . . . . . tj-rev-13-5a . tj-rev-13-5b tj-rev-13-5b tj-rev-13-5b . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
+        <f t="shared" si="0"/>
+        <v>". . . . . . . . . . . . . . . . . tj-rev-13-5a . tj-rev-13-5b tj-rev-13-5u tj-rev-13-5u . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -3889,19 +3984,19 @@
         <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
         <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W16" t="s">
-        <v>58</v>
+        <v>391</v>
       </c>
       <c r="X16" t="s">
-        <v>58</v>
+        <v>391</v>
       </c>
       <c r="Y16" t="s">
         <v>1</v>
@@ -4011,8 +4106,8 @@
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C17:AAA17),CHAR(34))</f>
-        <v>". . . . . . . . . . . . . tj-rev-4-2 . tj-rev-4-3 . tj-rev-4-5 tj-rev-4-5 tj-rev-4-5 tj-rev-4-5 tj-rev-4-5 . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
+        <f t="shared" si="0"/>
+        <v>". . . . . . . . . . . . . tj-rev-4-2 . tj-rev-4-3 . tj-rev-4-5 tj-rev-4-5-u tj-rev-4-5-u tj-rev-4-5-u tj-rev-4-5-u tj-rev-4-5-u . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -4057,34 +4152,34 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q17" t="s">
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S17" t="s">
         <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>55</v>
+        <v>386</v>
       </c>
       <c r="V17" t="s">
-        <v>55</v>
+        <v>386</v>
       </c>
       <c r="W17" t="s">
-        <v>55</v>
+        <v>386</v>
       </c>
       <c r="X17" t="s">
-        <v>55</v>
+        <v>386</v>
       </c>
       <c r="Y17" t="s">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="Z17" t="s">
         <v>1</v>
@@ -4191,7 +4286,7 @@
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C18:AAA18),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B18" t="s">
@@ -4371,8 +4466,8 @@
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C19:AAA19),CHAR(34))</f>
-        <v>". . . . . . . . . . . . . . . tj-ba2-30-2a . tj-ba2-30-2c tj-ba2-30-2c tj-ba2-30-2c . tj-ba2-30-3 . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
+        <f t="shared" si="0"/>
+        <v>". . . . . . . . . . . . . . . tj-ba2-30-2a . tj-ba2-30-2c . tj-ba2-30-2c-up . tj-ba2-30-3 . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -4423,25 +4518,25 @@
         <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S19" t="s">
         <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="V19" t="s">
-        <v>53</v>
+        <v>387</v>
       </c>
       <c r="W19" t="s">
         <v>1</v>
       </c>
       <c r="X19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y19" t="s">
         <v>1</v>
@@ -4551,7 +4646,7 @@
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C20:AAA20),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . . tj-song-2-13a . . . . . . . tj-ascisa-4-1 . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B20" t="s">
@@ -4597,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q20" t="s">
         <v>1</v>
@@ -4621,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="X20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y20" t="s">
         <v>1</v>
@@ -4731,8 +4826,8 @@
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C21:AAA21),CHAR(34))</f>
-        <v>". . . . . . . . . . . . . tj-rev-21-10a . tj-rev-21-16 . tj-rev-18-1 tj-rev-18-1 tj-rev-18-1 tj-rev-18-1 tj-rev-18-1 . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
+        <f t="shared" si="0"/>
+        <v>". . . . . . . . . . . . . tj-rev-21-10a . tj-rev-21-16 . tj-rev-18-1 tj-rev-18-1-u tj-rev-18-1-u tj-rev-18-1-u tj-rev-18-1-up . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -4777,31 +4872,31 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q21" t="s">
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S21" t="s">
         <v>1</v>
       </c>
       <c r="T21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U21" t="s">
-        <v>47</v>
+        <v>388</v>
       </c>
       <c r="V21" t="s">
-        <v>47</v>
+        <v>388</v>
       </c>
       <c r="W21" t="s">
-        <v>47</v>
+        <v>388</v>
       </c>
       <c r="X21" t="s">
-        <v>47</v>
+        <v>389</v>
       </c>
       <c r="Y21" t="s">
         <v>1</v>
@@ -4911,8 +5006,8 @@
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C22:AAA22),CHAR(34))</f>
-        <v>". . . . . . . . . tj-es2-15-6 . tj-es2-15-8b tj-es2-15-8b tj-es2-15-8b . tj-es2-15-11a . tj-es2-15-11b . tj-es2-15-13a tj-es2-15-13a tj-es2-15-13a . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
+        <f t="shared" si="0"/>
+        <v>". . . . . . . . . tj-es2-15-6 . tj-es2-15-8b . tj-es2-15-8b-up . tj-es2-15-11a . tj-es2-15-11b . tj-es2-15-13a tj-es2-15-13a-u tj-es2-15-13a-u . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -4945,43 +5040,43 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M22" t="s">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O22" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="Q22" t="s">
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S22" t="s">
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U22" t="s">
         <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W22" t="s">
-        <v>42</v>
+        <v>392</v>
       </c>
       <c r="X22" t="s">
-        <v>42</v>
+        <v>392</v>
       </c>
       <c r="Y22" t="s">
         <v>1</v>
@@ -5091,8 +5186,8 @@
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C23:AAA23),CHAR(34))</f>
-        <v>". . . . . . . . . . . . . . . tj-es2-5-1 tj-es2-5-1 tj-es2-5-1 . tj-es2-5-3 tj-es2-5-3 tj-es2-5-3 . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
+        <f t="shared" si="0"/>
+        <v>". . . . . . . . . . . . . . . tj-es2-5-2 . tj-es2-5-2-up . tj-es2-5-3 tj-es2-5-3-u tj-es2-5-3-u . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -5143,13 +5238,13 @@
         <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="S23" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="U23" t="s">
         <v>1</v>
@@ -5158,10 +5253,10 @@
         <v>40</v>
       </c>
       <c r="W23" t="s">
-        <v>40</v>
+        <v>393</v>
       </c>
       <c r="X23" t="s">
-        <v>40</v>
+        <v>393</v>
       </c>
       <c r="Y23" t="s">
         <v>1</v>
@@ -5271,7 +5366,7 @@
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C24:AAA24),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . . tj-es2-2-34-s . tj-es2-2-37 . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B24" t="s">
@@ -5451,8 +5546,8 @@
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C25:AAA25),CHAR(34))</f>
-        <v>". . . . . . . . . . . . . tj-1thess-4-16a-s . . . tj-es2-16-12a tj-es2-16-12a tj-es2-16-12a . tj-es2-16-12b . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
+        <f t="shared" si="0"/>
+        <v>". . . . . . . . . . . . . tj-1thess-4-16a-s . . . tj-es2-16-12a . tj-es2-16-12a-up . tj-es2-16-12b . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -5512,10 +5607,10 @@
         <v>36</v>
       </c>
       <c r="U25" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>36</v>
+        <v>390</v>
       </c>
       <c r="W25" t="s">
         <v>1</v>
@@ -5631,7 +5726,7 @@
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C26:AAA26),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . . tj-gad-14-4 . tj-gad-14-9a . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B26" t="s">
@@ -5811,7 +5906,7 @@
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C27:AAA27),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B27" t="s">
@@ -5991,7 +6086,7 @@
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C28:AAA28),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . . . . . . . . tj-enoch-80-2b . tj-enoch-80-3 . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . ."</v>
       </c>
       <c r="B28" t="s">
@@ -6171,7 +6266,7 @@
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C29:AAA29),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"tab-rev-12-end . tab-seal-1-end . tab-seal-2-end . tab-seal-3-end . tab-seal-4-end . tab-seal-5-end . tab-seal-6-end . tab-rapture-end . tab-seal-7-end . tab-trumpet-1-end . tab-trumpet-2-end . tab-trumpet-3-end . tab-trumpet-4-end . tab-trumpet-5-end . tab-trumpet-6-end . tab-ascension-end . tab-trumpet-7-end . tab-vial-1-end . tab-vial-2-end . tab-vial-3-end . tab-vial-4-end . tab-vial-5-end . tab-vial-6-end . tab-thief-end . tab-vial-7-end . tab-pre-1000-end . tab-1000-end . tab-end-1000-end . tab-judgement-end"</v>
       </c>
       <c r="B29" t="s">
@@ -6370,7 +6465,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1">
         <f>COUNTA(C8:ZC8)</f>
@@ -6379,7 +6474,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2">
         <f>COUNTA(A8:A138)</f>
@@ -6393,28 +6488,28 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZC4),CHAR(34))</f>
+        <f t="shared" ref="A4:A44" si="0">_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZC4),CHAR(34))</f>
         <v>"j-rev-12-5aa rev-12-6 j-rev-12-6 j-rev-12-6"</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C5:ZC5),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B5" t="s">
@@ -6435,7 +6530,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C6:ZC6),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B6" t="s">
@@ -6456,7 +6551,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C7:ZC7),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B7" t="s">
@@ -6477,7 +6572,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C8:ZC8),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B8" t="s">
@@ -6498,7 +6593,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C9:ZC9),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B9" t="s">
@@ -6519,28 +6614,28 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C10:ZC10),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-rev-8-6a j-rev-8-6a rev-8-7 j-rev-8-7"</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C11:ZC11),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B11" t="s">
@@ -6561,28 +6656,28 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C12:ZC12),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-rev-10-5aa rev-10-6a rev-10-6b j-rev-10-6b"</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C13:ZC13),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B13" t="s">
@@ -6603,28 +6698,28 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C14:ZC14),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-rev-14-7aa j-rev-14-7aa rev-14-7b j-rev-14-7b"</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C15:ZC15),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B15" t="s">
@@ -6645,20 +6740,20 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C16:ZC16),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-dan-12-7ba dan-12-7c j-dan-12-7c-e ."</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F16" t="s">
         <v>1</v>
@@ -6666,7 +6761,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C17:ZC17),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B17" t="s">
@@ -6687,28 +6782,28 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C18:ZC18),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"rev-11-2b rev-11-3 rev-11-4 rev-11-6a"</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F18" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C19:ZC19),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B19" t="s">
@@ -6729,28 +6824,28 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C20:ZC20),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"rev-13-5b j-rev-13-5b j-rev-13-5b j-rev-13-5b"</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C21:ZC21),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B21" t="s">
@@ -6771,7 +6866,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C22:ZC22),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B22" t="s">
@@ -6792,7 +6887,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C23:ZC23),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B23" t="s">
@@ -6813,7 +6908,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C24:ZC24),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B24" t="s">
@@ -6834,7 +6929,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C25:ZC25),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B25" t="s">
@@ -6855,7 +6950,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C26:ZC26),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B26" t="s">
@@ -6876,7 +6971,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C27:ZC27),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B27" t="s">
@@ -6897,7 +6992,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C28:ZC28),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B28" t="s">
@@ -6918,7 +7013,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C29:ZC29),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B29" t="s">
@@ -6939,7 +7034,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C30:ZC30),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B30" t="s">
@@ -6960,7 +7055,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C31:ZC31),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B31" t="s">
@@ -6981,28 +7076,28 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C32:ZC32),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-es2-15-11ba j-es2-15-11ba es2-15-13a j-es2-15-13a"</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D32" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C33:ZC33),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B33" t="s">
@@ -7023,28 +7118,28 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C34:ZC34),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-es2-5-2a j-es2-5-2a es2-5-3 j-es2-5-3"</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D34" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F34" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C35:ZC35),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B35" t="s">
@@ -7065,7 +7160,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C36:ZC36),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B36" t="s">
@@ -7086,7 +7181,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C37:ZC37),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B37" t="s">
@@ -7107,7 +7202,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C38:ZC38),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B38" t="s">
@@ -7128,7 +7223,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C39:ZC39),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B39" t="s">
@@ -7149,7 +7244,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C40:ZC40),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B40" t="s">
@@ -7170,7 +7265,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C41:ZC41),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B41" t="s">
@@ -7191,7 +7286,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C42:ZC42),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B42" t="s">
@@ -7212,7 +7307,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C43:ZC43),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B43" t="s">
@@ -7233,7 +7328,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C44:ZC44),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". j-enoch-80-2a enoch-80-2a enoch-80-2b"</v>
       </c>
       <c r="B44" t="s">
@@ -7243,13 +7338,13 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E44" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F44" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -7273,7 +7368,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1">
         <f>COUNTA(C8:ZC8)</f>
@@ -7282,7 +7377,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2">
         <f>COUNTA(A8:A138)</f>
@@ -7296,28 +7391,28 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZC4),CHAR(34))</f>
+        <f t="shared" ref="A4:A44" si="0">_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZC4),CHAR(34))</f>
         <v>"j-rev-12-6a j-rev-12-6a j-rev-12-6a rev-12-7"</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C5:ZC5),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B5" t="s">
@@ -7338,7 +7433,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C6:ZC6),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B6" t="s">
@@ -7359,7 +7454,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C7:ZC7),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B7" t="s">
@@ -7380,7 +7475,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C8:ZC8),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B8" t="s">
@@ -7401,7 +7496,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C9:ZC9),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B9" t="s">
@@ -7422,28 +7517,28 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C10:ZC10),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"rev-8-8 j-rev-8-8 j-rev-8-8 j-rev-8-8"</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C11:ZC11),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B11" t="s">
@@ -7464,28 +7559,28 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C12:ZC12),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"rev-10-6b j-rev-10-6b rev-10-6c j-rev-10-6c"</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C13:ZC13),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B13" t="s">
@@ -7506,28 +7601,28 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C14:ZC14),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"rev-14-7c j-rev-14-7c j-rev-14-7c j-rev-14-7c"</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C15:ZC15),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B15" t="s">
@@ -7548,7 +7643,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C16:ZC16),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". j-gad-2-26a gad-2-26a gad-2-26b"</v>
       </c>
       <c r="B16" t="s">
@@ -7558,18 +7653,18 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C17:ZC17),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B17" t="s">
@@ -7590,28 +7685,28 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C18:ZC18),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"rev-11-6b rev-11-6c j-rev-11-6c j-rev-11-6c"</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C19:ZC19),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B19" t="s">
@@ -7632,7 +7727,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C20:ZC20),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B20" t="s">
@@ -7653,7 +7748,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C21:ZC21),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B21" t="s">
@@ -7674,7 +7769,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C22:ZC22),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B22" t="s">
@@ -7695,7 +7790,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C23:ZC23),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B23" t="s">
@@ -7716,7 +7811,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C24:ZC24),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B24" t="s">
@@ -7737,7 +7832,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C25:ZC25),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B25" t="s">
@@ -7758,28 +7853,28 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C26:ZC26),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-ba2-30-2ca j-ba2-30-2ca ba2-30-3 j-ba2-30-3"</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E26" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C27:ZC27),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B27" t="s">
@@ -7800,7 +7895,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C28:ZC28),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ascisa-4-1 j-ascisa-4-1"</v>
       </c>
       <c r="B28" t="s">
@@ -7813,15 +7908,15 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F28" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C29:ZC29),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B29" t="s">
@@ -7842,7 +7937,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C30:ZC30),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B30" t="s">
@@ -7863,7 +7958,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C31:ZC31),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B31" t="s">
@@ -7884,7 +7979,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C32:ZC32),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B32" t="s">
@@ -7905,7 +8000,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C33:ZC33),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B33" t="s">
@@ -7926,7 +8021,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C34:ZC34),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B34" t="s">
@@ -7947,7 +8042,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C35:ZC35),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B35" t="s">
@@ -7968,7 +8063,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C36:ZC36),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B36" t="s">
@@ -7989,7 +8084,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C37:ZC37),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B37" t="s">
@@ -8010,28 +8105,28 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C38:ZC38),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"es2-16-12b j-es2-16-12b j-es2-16-12b j-es2-16-12b"</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D38" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E38" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F38" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C39:ZC39),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B39" t="s">
@@ -8052,7 +8147,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C40:ZC40),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B40" t="s">
@@ -8073,7 +8168,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C41:ZC41),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B41" t="s">
@@ -8094,7 +8189,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C42:ZC42),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B42" t="s">
@@ -8115,7 +8210,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C43:ZC43),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B43" t="s">
@@ -8136,23 +8231,23 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C44:ZC44),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-enoch-80-2b j-enoch-80-2b enoch-80-3 j-enoch-80-3"</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D44" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E44" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F44" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -8175,7 +8270,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1">
         <f>COUNTA(C10:ZL10)</f>
@@ -8184,7 +8279,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2">
         <f>COUNTA(A10:A136)</f>
@@ -8198,7 +8293,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZL4),CHAR(34))</f>
+        <f t="shared" ref="A4:A20" si="0">_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZL4),CHAR(34))</f>
         <v>". ."</v>
       </c>
       <c r="B4" t="s">
@@ -8213,7 +8308,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C5:ZL5),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B5" t="s">
@@ -8228,7 +8323,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C6:ZL6),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B6" t="s">
@@ -8243,7 +8338,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C7:ZL7),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B7" t="s">
@@ -8258,22 +8353,22 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C8:ZL8),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"rev-6-1 rev-6-2"</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C9:ZL9),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B9" t="s">
@@ -8288,7 +8383,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C10:ZL10),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B10" t="s">
@@ -8303,7 +8398,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C11:ZL11),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B11" t="s">
@@ -8318,7 +8413,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C12:ZL12),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B12" t="s">
@@ -8333,7 +8428,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C13:ZL13),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B13" t="s">
@@ -8348,7 +8443,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C14:ZL14),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B14" t="s">
@@ -8363,7 +8458,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C15:ZL15),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B15" t="s">
@@ -8378,7 +8473,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C16:ZL16),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B16" t="s">
@@ -8393,7 +8488,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C17:ZL17),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B17" t="s">
@@ -8408,7 +8503,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C18:ZL18),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B18" t="s">
@@ -8423,7 +8518,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C19:ZL19),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B19" t="s">
@@ -8438,7 +8533,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C20:ZL20),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B20" t="s">
@@ -8471,7 +8566,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1">
         <f>COUNTA(C10:ZL10)</f>
@@ -8480,7 +8575,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2">
         <f>COUNTA(A10:A136)</f>
@@ -8494,7 +8589,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZL4),CHAR(34))</f>
+        <f t="shared" ref="A4:A20" si="0">_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZL4),CHAR(34))</f>
         <v>"."</v>
       </c>
       <c r="B4" t="s">
@@ -8506,7 +8601,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C5:ZL5),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"."</v>
       </c>
       <c r="B5" t="s">
@@ -8518,7 +8613,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C6:ZL6),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"."</v>
       </c>
       <c r="B6" t="s">
@@ -8530,7 +8625,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C7:ZL7),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"."</v>
       </c>
       <c r="B7" t="s">
@@ -8542,19 +8637,19 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C8:ZL8),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"rev-6-3"</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C9:ZL9),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"."</v>
       </c>
       <c r="B9" t="s">
@@ -8566,7 +8661,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C10:ZL10),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"."</v>
       </c>
       <c r="B10" t="s">
@@ -8578,7 +8673,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C11:ZL11),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"."</v>
       </c>
       <c r="B11" t="s">
@@ -8590,7 +8685,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C12:ZL12),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"."</v>
       </c>
       <c r="B12" t="s">
@@ -8602,7 +8697,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C13:ZL13),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"."</v>
       </c>
       <c r="B13" t="s">
@@ -8614,7 +8709,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C14:ZL14),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"."</v>
       </c>
       <c r="B14" t="s">
@@ -8626,7 +8721,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C15:ZL15),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"."</v>
       </c>
       <c r="B15" t="s">
@@ -8638,7 +8733,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C16:ZL16),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"."</v>
       </c>
       <c r="B16" t="s">
@@ -8650,7 +8745,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C17:ZL17),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"."</v>
       </c>
       <c r="B17" t="s">
@@ -8662,7 +8757,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C18:ZL18),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"."</v>
       </c>
       <c r="B18" t="s">
@@ -8674,7 +8769,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C19:ZL19),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"."</v>
       </c>
       <c r="B19" t="s">
@@ -8686,7 +8781,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C20:ZL20),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"."</v>
       </c>
       <c r="B20" t="s">
@@ -8716,7 +8811,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1">
         <f>COUNTA(C10:ZL10)</f>
@@ -8725,7 +8820,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2">
         <f>COUNTA(A10:A136)</f>
@@ -8739,7 +8834,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZL4),CHAR(34))</f>
+        <f t="shared" ref="A4:A20" si="0">_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZL4),CHAR(34))</f>
         <v>". ."</v>
       </c>
       <c r="B4" t="s">
@@ -8754,7 +8849,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C5:ZL5),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B5" t="s">
@@ -8769,7 +8864,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C6:ZL6),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B6" t="s">
@@ -8784,7 +8879,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C7:ZL7),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B7" t="s">
@@ -8799,22 +8894,22 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C8:ZL8),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"rev-6-5 rev-6-6"</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C9:ZL9),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B9" t="s">
@@ -8829,7 +8924,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C10:ZL10),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B10" t="s">
@@ -8844,7 +8939,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C11:ZL11),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B11" t="s">
@@ -8859,7 +8954,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C12:ZL12),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B12" t="s">
@@ -8874,7 +8969,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C13:ZL13),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B13" t="s">
@@ -8889,7 +8984,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C14:ZL14),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B14" t="s">
@@ -8904,7 +8999,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C15:ZL15),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B15" t="s">
@@ -8919,7 +9014,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C16:ZL16),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B16" t="s">
@@ -8934,7 +9029,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C17:ZL17),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B17" t="s">
@@ -8949,7 +9044,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C18:ZL18),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B18" t="s">
@@ -8964,7 +9059,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C19:ZL19),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B19" t="s">
@@ -8979,7 +9074,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C20:ZL20),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". ."</v>
       </c>
       <c r="B20" t="s">
@@ -9012,7 +9107,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1">
         <f>COUNTA(C10:ZL10)</f>
@@ -9021,7 +9116,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2">
         <f>COUNTA(A10:A140)</f>
@@ -9035,7 +9130,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZL4),CHAR(34))</f>
+        <f t="shared" ref="A4:A32" si="0">_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZL4),CHAR(34))</f>
         <v>". . ."</v>
       </c>
       <c r="B4" t="s">
@@ -9053,7 +9148,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C5:ZL5),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B5" t="s">
@@ -9071,7 +9166,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C6:ZL6),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B6" t="s">
@@ -9089,7 +9184,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C7:ZL7),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B7" t="s">
@@ -9107,25 +9202,25 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C8:ZL8),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"rev-6-7 rev-6-8b j-rev-6-8b"</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C9:ZL9),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B9" t="s">
@@ -9143,25 +9238,25 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C10:ZL10),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"job-5-19 job-5-20 j-job-5-19-e"</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C11:ZL11),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B11" t="s">
@@ -9179,7 +9274,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C12:ZL12),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B12" t="s">
@@ -9197,7 +9292,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C13:ZL13),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B13" t="s">
@@ -9215,7 +9310,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C14:ZL14),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B14" t="s">
@@ -9233,7 +9328,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C15:ZL15),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B15" t="s">
@@ -9251,7 +9346,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C16:ZL16),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B16" t="s">
@@ -9269,7 +9364,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C17:ZL17),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B17" t="s">
@@ -9287,7 +9382,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C18:ZL18),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B18" t="s">
@@ -9305,7 +9400,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C19:ZL19),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B19" t="s">
@@ -9323,7 +9418,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C20:ZL20),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B20" t="s">
@@ -9341,7 +9436,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C21:ZL21),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B21" t="s">
@@ -9359,7 +9454,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C22:ZL22),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B22" t="s">
@@ -9377,7 +9472,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C23:ZL23),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B23" t="s">
@@ -9395,7 +9490,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C24:ZL24),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B24" t="s">
@@ -9413,7 +9508,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C25:ZL25),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B25" t="s">
@@ -9431,7 +9526,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C26:ZL26),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B26" t="s">
@@ -9449,7 +9544,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C27:ZL27),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B27" t="s">
@@ -9467,7 +9562,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C28:ZL28),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B28" t="s">
@@ -9485,7 +9580,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C29:ZL29),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B29" t="s">
@@ -9503,7 +9598,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C30:ZL30),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B30" t="s">
@@ -9521,7 +9616,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C31:ZL31),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . ."</v>
       </c>
       <c r="B31" t="s">
@@ -9539,20 +9634,20 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C32:ZL32),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-es2-15-5-s es2-15-5 es2-15-6"</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -9575,7 +9670,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1">
         <f>COUNTA(C10:ZL10)</f>
@@ -9584,7 +9679,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2">
         <f>COUNTA(A10:A140)</f>
@@ -9598,7 +9693,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZL4),CHAR(34))</f>
+        <f t="shared" ref="A4:A32" si="0">_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZL4),CHAR(34))</f>
         <v>". . . ."</v>
       </c>
       <c r="B4" t="s">
@@ -9619,7 +9714,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C5:ZL5),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B5" t="s">
@@ -9640,7 +9735,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C6:ZL6),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B6" t="s">
@@ -9661,7 +9756,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C7:ZL7),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B7" t="s">
@@ -9682,28 +9777,28 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C8:ZL8),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"rev-6-9 j-rev-6-9 rev-6-10 rev-6-11"</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C9:ZL9),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B9" t="s">
@@ -9724,7 +9819,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C10:ZL10),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B10" t="s">
@@ -9745,7 +9840,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C11:ZL11),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B11" t="s">
@@ -9766,7 +9861,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C12:ZL12),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B12" t="s">
@@ -9787,7 +9882,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C13:ZL13),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B13" t="s">
@@ -9808,7 +9903,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C14:ZL14),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B14" t="s">
@@ -9829,7 +9924,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C15:ZL15),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B15" t="s">
@@ -9850,7 +9945,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C16:ZL16),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B16" t="s">
@@ -9871,7 +9966,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C17:ZL17),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B17" t="s">
@@ -9892,7 +9987,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C18:ZL18),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B18" t="s">
@@ -9913,7 +10008,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C19:ZL19),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B19" t="s">
@@ -9934,7 +10029,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C20:ZL20),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B20" t="s">
@@ -9955,7 +10050,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C21:ZL21),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B21" t="s">
@@ -9976,7 +10071,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C22:ZL22),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B22" t="s">
@@ -9997,7 +10092,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C23:ZL23),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B23" t="s">
@@ -10018,7 +10113,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C24:ZL24),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B24" t="s">
@@ -10039,7 +10134,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C25:ZL25),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B25" t="s">
@@ -10060,7 +10155,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C26:ZL26),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B26" t="s">
@@ -10081,7 +10176,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C27:ZL27),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B27" t="s">
@@ -10102,7 +10197,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C28:ZL28),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B28" t="s">
@@ -10123,7 +10218,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C29:ZL29),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B29" t="s">
@@ -10144,7 +10239,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C30:ZL30),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B30" t="s">
@@ -10165,7 +10260,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C31:ZL31),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . ."</v>
       </c>
       <c r="B31" t="s">
@@ -10186,23 +10281,23 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C32:ZL32),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-es2-15-7 es2-15-7 es2-15-8b es2-15-9"</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -10233,7 +10328,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1">
         <f>COUNTA(C8:ZT8)</f>
@@ -10242,7 +10337,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2">
         <f>COUNTA(A8:A143)</f>
@@ -10256,40 +10351,40 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZT4),CHAR(34))</f>
+        <f t="shared" ref="A4:A40" si="0">_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZT4),CHAR(34))</f>
         <v>"j-rev-12-3 j-rev-12-3 rev-12-4 j-rev-12-4 j-rev-12-4 j-rev-12-4 j-rev-12-4 j-rev-12-4"</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C5:ZT5),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B5" t="s">
@@ -10322,7 +10417,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C6:ZT6),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B6" t="s">
@@ -10355,7 +10450,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C7:ZT7),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B7" t="s">
@@ -10388,40 +10483,40 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C8:ZT8),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-rev6-11 rev-6-1 rev-6-2 rev-6-3 rev-6-4 j-rev6-15 rev-6-16a rev-6-16b"</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" t="s">
         <v>143</v>
       </c>
-      <c r="F8" t="s">
-        <v>145</v>
-      </c>
       <c r="G8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C9:ZT9),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B9" t="s">
@@ -10454,40 +10549,40 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C10:ZT10),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"mat-24-29a mat-24-29b mat-24-29c j-mat-24-29c j-mat-24-29c mat-24-29d mat-24-30a j-mat-24-30a"</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C11:ZT11),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B11" t="s">
@@ -10520,40 +10615,40 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C12:ZT12),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"mark-13-24a mark-13-24b mark-13-25a j-mark-13-25a j-mark-13-25a mark-13-25b j-mark-13-25b j-mark-13-25b"</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C13:ZT13),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B13" t="s">
@@ -10586,40 +10681,40 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C14:ZT14),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-luke-21-25-s luke-21-25a luke-21-25b luke-21-25c luke-21-26a luke-21-26b j-luke-21-26b j-luke-21-26b"</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C15:ZT15),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B15" t="s">
@@ -10652,7 +10747,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C16:ZT16),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B16" t="s">
@@ -10685,7 +10780,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C17:ZT17),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B17" t="s">
@@ -10718,7 +10813,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C18:ZT18),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B18" t="s">
@@ -10751,7 +10846,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C19:ZT19),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B19" t="s">
@@ -10784,7 +10879,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C20:ZT20),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B20" t="s">
@@ -10817,7 +10912,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C21:ZT21),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B21" t="s">
@@ -10850,40 +10945,40 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C22:ZT22),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-rev-4-2 rev-4-2a j-rev-4-2a j-rev-4-2a j-rev-4-2a j-rev-4-2a j-rev-4-2a rev-4-2b"</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C23:ZT23),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B23" t="s">
@@ -10916,7 +11011,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C24:ZT24),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B24" t="s">
@@ -10949,7 +11044,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C25:ZT25),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B25" t="s">
@@ -10982,7 +11077,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C26:ZT26),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B26" t="s">
@@ -11015,7 +11110,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C27:ZT27),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B27" t="s">
@@ -11048,7 +11143,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C28:ZT28),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". j-song-2-13-s song-2-13a j-song-2-13a j-song-2-13a j-song-2-13a j-song-2-13a j-song-2-13a"</v>
       </c>
       <c r="B28" t="s">
@@ -11058,30 +11153,30 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C29:ZT29),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B29" t="s">
@@ -11114,7 +11209,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C30:ZT30),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B30" t="s">
@@ -11147,7 +11242,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C31:ZT31),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B31" t="s">
@@ -11180,40 +11275,40 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C32:ZT32),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-es2-15-8b j-es2-15-8b j-es2-15-8b j-es2-15-8b j-es2-15-8b j-es2-15-8b j-es2-15-8b j-es2-15-8b"</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C33:ZT33),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B33" t="s">
@@ -11246,7 +11341,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C34:ZT34),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B34" t="s">
@@ -11279,7 +11374,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C35:ZT35),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B35" t="s">
@@ -11312,7 +11407,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C36:ZT36),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B36" t="s">
@@ -11345,7 +11440,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C37:ZT37),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B37" t="s">
@@ -11378,7 +11473,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C38:ZT38),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B38" t="s">
@@ -11411,7 +11506,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C39:ZT39),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . ."</v>
       </c>
       <c r="B39" t="s">
@@ -11444,7 +11539,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C40:ZT40),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". gad-14-1 j-gad-14-1 gad-14-2a j-gad-14-2a j-gad-14-2a j-gad-14-2a gad-14-2b"</v>
       </c>
       <c r="B40" t="s">
@@ -11454,25 +11549,25 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -11497,7 +11592,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1">
         <f>COUNTA(C8:ZL8)</f>
@@ -11506,7 +11601,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2">
         <f>COUNTA(A8:A138)</f>
@@ -11520,34 +11615,34 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZL4),CHAR(34))</f>
+        <f t="shared" ref="A4:A40" si="0">_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZL4),CHAR(34))</f>
         <v>"rev-12-5a j-rev-12-5a j-rev-12-5a j-rev-12-5a rev-12-5b j-rev-12-5b"</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C5:ZL5),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B5" t="s">
@@ -11574,7 +11669,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C6:ZL6),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B6" t="s">
@@ -11601,7 +11696,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C7:ZL7),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B7" t="s">
@@ -11628,17 +11723,17 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C8:ZL8),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-rev-6-16 rev-6-17 . . . rev-7-1"</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
@@ -11650,12 +11745,12 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C9:ZL9),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B9" t="s">
@@ -11682,34 +11777,34 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C10:ZL10),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"mat-24-30b j-mat-24-30b j-mat-24-30b mat-24-31a mat-24-31b j-mat-24-31b-e"</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C11:ZL11),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B11" t="s">
@@ -11736,34 +11831,34 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C12:ZL12),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"mark-13-26 j-mark-13-26 j-mark-13-26 mark-13-27a mark-13-27b j-mark-13-27b-e"</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C13:ZL13),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B13" t="s">
@@ -11790,17 +11885,17 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C14:ZL14),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"luke-21-27 j-luke-21-27-e . . . ."</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -11817,7 +11912,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C15:ZL15),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B15" t="s">
@@ -11844,7 +11939,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C16:ZL16),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B16" t="s">
@@ -11871,7 +11966,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C17:ZL17),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B17" t="s">
@@ -11898,7 +11993,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C18:ZL18),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . rev-11-1 j-rev-11-1 j-rev-11-1 j-rev-11-1"</v>
       </c>
       <c r="B18" t="s">
@@ -11911,21 +12006,21 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C19:ZL19),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B19" t="s">
@@ -11952,7 +12047,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C20:ZL20),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B20" t="s">
@@ -11979,7 +12074,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C21:ZL21),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B21" t="s">
@@ -12006,34 +12101,34 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C22:ZL22),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-rev-4-2b rev-4-3 j-rev-4-3 j-rev-4-3 j-rev-4-3 j-rev-4-3"</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C23:ZL23),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B23" t="s">
@@ -12060,7 +12155,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C24:ZL24),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B24" t="s">
@@ -12087,7 +12182,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C25:ZL25),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B25" t="s">
@@ -12114,34 +12209,34 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C26:ZL26),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"ba2-30-1 j-ba2-30-1 j-ba2-30-1 ba2-30-2a j-ba2-30-2a j-ba2-30-2a"</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C27:ZL27),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B27" t="s">
@@ -12168,34 +12263,34 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C28:ZL28),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-song-2-13a j-song-2-13a j-song-2-13a song-2-13b song-2-13c j-song-2-13-e"</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C29:ZL29),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B29" t="s">
@@ -12222,7 +12317,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C30:ZL30),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B30" t="s">
@@ -12249,7 +12344,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C31:ZL31),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B31" t="s">
@@ -12276,34 +12371,34 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C32:ZL32),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-es2-15-9 j-es2-15-9 j-es2-15-9 j-es2-15-9 es2-15-10 j-es2-15-11a"</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C33:ZL33),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B33" t="s">
@@ -12330,7 +12425,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C34:ZL34),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . es2-5-1 es2-5-2"</v>
       </c>
       <c r="B34" t="s">
@@ -12349,15 +12444,15 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C35:ZL35),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B35" t="s">
@@ -12384,34 +12479,34 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C36:ZL36),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"es2-2-34 j-es2-2-35 j-es2-2-35 es2-2-36 es2-2-37 j-es2-2-37"</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C37:ZL37),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B37" t="s">
@@ -12438,34 +12533,34 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C38:ZL38),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"thess-4-16a j-1thess-4-16a j-1thess-4-16a thess-4-16b thess-4-17 j-thess-4-17-e"</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D38" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E38" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C39:ZL39),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . ."</v>
       </c>
       <c r="B39" t="s">
@@ -12492,29 +12587,29 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C40:ZL40),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-gad-14-5 gad-14-5 gad-14-6 j-gad-14-9a gad-14-9b j-gad-14-9b-e"</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F40" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -12539,7 +12634,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1">
         <f>COUNTA(C8:ZL8)</f>
@@ -12548,7 +12643,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2">
         <f>COUNTA(A8:A138)</f>
@@ -12562,7 +12657,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZL4),CHAR(34))</f>
+        <f t="shared" ref="A4:A40" si="0">_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C4:ZL4),CHAR(34))</f>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B4" t="s">
@@ -12610,7 +12705,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C5:ZL5),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B5" t="s">
@@ -12658,55 +12753,55 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C6:ZL6),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"rev-5-5 j-rev-5-5 rev-5-6 rev-5-7 rev-5-8 rev-5-9a rev-5-9b rev-5-9c j-rev-5-9c j-rev-5-9c j-rev-5-9c j-rev-5-9c j-rev-5-9c"</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C7:ZL7),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B7" t="s">
@@ -12754,55 +12849,55 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C8:ZL8),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-rev-7-2a rev-7-2 rev-7-4 j-rev-7-4 rev-7-9 j-rev-7-9 j-rev-7-9 j-rev-7-9 j-rev-7-9 j-rev-7-9 j-rev-7-9 j-rev-7-9 j-rev-7-9"</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C9:ZL9),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B9" t="s">
@@ -12850,55 +12945,55 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C10:ZL10),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"rev-8-1 j-rev-8-1 j-rev-8-1 j-rev-8-1 rev-8-3a rev-8-3b j-rev-8-3b j-rev-8-3b j-rev-8-3b rev-8-5a rev-8-5b j-rev-8-5b rev-8-6"</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C11:ZL11),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B11" t="s">
@@ -12946,7 +13041,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C12:ZL12),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . rev-10-1 rev-10-2 rev-10-3 j-rev-10-3 rev-10-5 j-rev-10-5"</v>
       </c>
       <c r="B12" t="s">
@@ -12974,27 +13069,27 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C13:ZL13),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B13" t="s">
@@ -13042,7 +13137,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C14:ZL14),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . rev-14-1 j-rev-14-1 rev-14-2 rev-14-3 rev-14-4 rev-14-6a j-rev-14-6a j-rev-14-6a j-rev-14-6a rev-14-7a j-rev-14-7a"</v>
       </c>
       <c r="B14" t="s">
@@ -13055,42 +13150,42 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C15:ZL15),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B15" t="s">
@@ -13138,7 +13233,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C16:ZL16),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . j-dan-12-7a-s dan-12-7b j-dan-12-7b"</v>
       </c>
       <c r="B16" t="s">
@@ -13175,18 +13270,18 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C17:ZL17),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B17" t="s">
@@ -13234,7 +13329,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C18:ZL18),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B18" t="s">
@@ -13282,7 +13377,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C19:ZL19),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B19" t="s">
@@ -13330,7 +13425,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C20:ZL20),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B20" t="s">
@@ -13378,7 +13473,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C21:ZL21),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B21" t="s">
@@ -13426,55 +13521,55 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C22:ZL22),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-rev-4-3a j-rev-4-3a j-rev-4-3a j-rev-4-3a rev-4-4 j-rev-4-4 j-rev-4-4 j-rev-4-4 j-rev-4-4 rev-4-5 j-rev-4-5 j-rev-4-5 j-rev-4-5"</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C23:ZL23),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B23" t="s">
@@ -13522,7 +13617,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C24:ZL24),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B24" t="s">
@@ -13570,7 +13665,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C25:ZL25),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B25" t="s">
@@ -13618,55 +13713,55 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C26:ZL26),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-ba2-30-2aa j-ba2-30-2aa ba2-30-2b j-ba2-30-2b ba2-30-2c j-ba2-30-2c j-ba2-30-2c j-ba2-30-2c j-ba2-30-2c j-ba2-30-2c j-ba2-30-2c j-ba2-30-2c j-ba2-30-2c"</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C27:ZL27),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B27" t="s">
@@ -13714,7 +13809,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C28:ZL28),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B28" t="s">
@@ -13762,7 +13857,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C29:ZL29),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B29" t="s">
@@ -13810,7 +13905,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C30:ZL30),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . rev-18-1 j-rev-18-1 j-rev-18-1 j-rev-18-1 j-rev-18-1 j-rev-18-1"</v>
       </c>
       <c r="B30" t="s">
@@ -13838,27 +13933,27 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C31:ZL31),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B31" t="s">
@@ -13906,55 +14001,55 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C32:ZL32),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-es2-15-11aa j-es2-15-11aa j-es2-15-11aa j-es2-15-11aa j-es2-15-11aa j-es2-15-11aa j-es2-15-11aa j-es2-15-11aa j-es2-15-11aa j-es2-15-11aa es2-15-11b j-es2-15-11b j-es2-15-11b"</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C33:ZL33),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B33" t="s">
@@ -14002,7 +14097,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C34:ZL34),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B34" t="s">
@@ -14050,7 +14145,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C35:ZL35),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B35" t="s">
@@ -14098,32 +14193,32 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C36:ZL36),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>"j-es2-2-37a j-es2-2-37a es2-2-38 j-es2-2-38 es2-2-39 es2-2-41 j-es2-2-41-e . . . . . ."</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D36" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F36" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H36" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I36" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J36" t="s">
         <v>1</v>
@@ -14146,7 +14241,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C37:ZL37),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B37" t="s">
@@ -14194,7 +14289,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C38:ZL38),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . j-es2-16-9-s es2-16-9 es2-16-12a j-es2-16-12a j-es2-16-12a"</v>
       </c>
       <c r="B38" t="s">
@@ -14225,24 +14320,24 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C39:ZL39),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B39" t="s">
@@ -14290,7 +14385,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f>_xlfn.CONCAT(CHAR(34), _xlfn.TEXTJOIN(" ",TRUE,C40:ZL40),CHAR(34))</f>
+        <f t="shared" si="0"/>
         <v>". . . . . . . . . . . . ."</v>
       </c>
       <c r="B40" t="s">
